--- a/data/Oficina_de_procuradora_de_mujeres/opmAgresores.xlsx
+++ b/data/Oficina_de_procuradora_de_mujeres/opmAgresores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Oficina_de_procuradora_de_mujeres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8876DD2E-19DD-485C-830B-4021B89CFF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731E979-6EEE-456F-923F-442E2D677181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,18 +383,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -416,7 +416,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -427,7 +427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -438,7 +438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -460,7 +460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -471,7 +471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -493,7 +493,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -504,7 +504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -515,7 +515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -537,7 +537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -548,7 +548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2024</v>
       </c>
@@ -557,6 +557,83 @@
       </c>
       <c r="C15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2025</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2025</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2025</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2025</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2025</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
